--- a/REGULAR/CHO/LEGASPI, DOLORES.xlsx
+++ b/REGULAR/CHO/LEGASPI, DOLORES.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="298">
   <si>
     <t>PERIOD</t>
   </si>
@@ -923,10 +923,13 @@
     <t>01/02-05,08/2023</t>
   </si>
   <si>
-    <t>VL(9-0-0)</t>
-  </si>
-  <si>
-    <t>12/18-22,26-29/2023</t>
+    <t>12/18-22,27-29/2023</t>
+  </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1886,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K431" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K432" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2242,12 +2245,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K431"/>
+  <dimension ref="A2:K432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A415" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A412" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="H423" sqref="H423"/>
+      <selection pane="bottomLeft" activeCell="K415" sqref="K415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,7 +2411,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>18.841000000000122</v>
+        <v>15.841000000000122</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -11342,11 +11345,15 @@
       <c r="A417" s="40">
         <v>45138</v>
       </c>
-      <c r="B417" s="20"/>
+      <c r="B417" s="20" t="s">
+        <v>288</v>
+      </c>
       <c r="C417" s="13">
         <v>1.25</v>
       </c>
-      <c r="D417" s="39"/>
+      <c r="D417" s="39">
+        <v>1</v>
+      </c>
       <c r="E417" s="9"/>
       <c r="F417" s="20"/>
       <c r="G417" s="13">
@@ -11356,7 +11363,9 @@
       <c r="H417" s="39"/>
       <c r="I417" s="9"/>
       <c r="J417" s="11"/>
-      <c r="K417" s="20"/>
+      <c r="K417" s="49">
+        <v>45119</v>
+      </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
@@ -11388,11 +11397,15 @@
       <c r="A419" s="40">
         <v>45199</v>
       </c>
-      <c r="B419" s="20"/>
+      <c r="B419" s="20" t="s">
+        <v>288</v>
+      </c>
       <c r="C419" s="13">
         <v>1.25</v>
       </c>
-      <c r="D419" s="39"/>
+      <c r="D419" s="39">
+        <v>1</v>
+      </c>
       <c r="E419" s="9"/>
       <c r="F419" s="20"/>
       <c r="G419" s="13">
@@ -11402,7 +11415,9 @@
       <c r="H419" s="39"/>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
-      <c r="K419" s="20"/>
+      <c r="K419" s="49">
+        <v>45184</v>
+      </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
@@ -11459,11 +11474,11 @@
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C422" s="13"/>
       <c r="D422" s="39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E422" s="9"/>
       <c r="F422" s="20"/>
@@ -11472,41 +11487,45 @@
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
       <c r="K422" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B423" s="20"/>
-      <c r="C423" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D423" s="39"/>
+      <c r="A423" s="40"/>
+      <c r="B423" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C423" s="13"/>
+      <c r="D423" s="39">
+        <v>2</v>
+      </c>
       <c r="E423" s="9"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G423" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H423" s="39"/>
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
-      <c r="K423" s="20"/>
+      <c r="K423" s="20" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="48" t="s">
-        <v>292</v>
+      <c r="A424" s="40">
+        <v>45291</v>
       </c>
       <c r="B424" s="20"/>
-      <c r="C424" s="13"/>
+      <c r="C424" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D424" s="39"/>
       <c r="E424" s="9"/>
       <c r="F424" s="20"/>
-      <c r="G424" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G424" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H424" s="39"/>
       <c r="I424" s="9"/>
@@ -11514,19 +11533,17 @@
       <c r="K424" s="20"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="40">
-        <v>45322</v>
+      <c r="A425" s="48" t="s">
+        <v>292</v>
       </c>
       <c r="B425" s="20"/>
-      <c r="C425" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C425" s="13"/>
       <c r="D425" s="39"/>
       <c r="E425" s="9"/>
       <c r="F425" s="20"/>
-      <c r="G425" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G425" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H425" s="39"/>
       <c r="I425" s="9"/>
@@ -11535,7 +11552,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13">
@@ -11555,7 +11572,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13">
@@ -11575,7 +11592,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13">
@@ -11595,7 +11612,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13">
@@ -11615,7 +11632,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13">
@@ -11635,7 +11652,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13">
@@ -11652,6 +11669,26 @@
       <c r="I431" s="9"/>
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A432" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B432" s="20"/>
+      <c r="C432" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D432" s="39"/>
+      <c r="E432" s="9"/>
+      <c r="F432" s="20"/>
+      <c r="G432" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H432" s="39"/>
+      <c r="I432" s="9"/>
+      <c r="J432" s="11"/>
+      <c r="K432" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12640,17 +12677,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/REGULAR/CHO/LEGASPI, DOLORES.xlsx
+++ b/REGULAR/CHO/LEGASPI, DOLORES.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="298">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2248,9 +2248,9 @@
   <dimension ref="A2:K432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A412" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A403" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K415" sqref="K415"/>
+      <selection pane="bottomLeft" activeCell="K412" sqref="K412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,7 +2411,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>15.841000000000122</v>
+        <v>14.841000000000122</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -11229,11 +11229,15 @@
       <c r="A412" s="40">
         <v>44985</v>
       </c>
-      <c r="B412" s="20"/>
+      <c r="B412" s="20" t="s">
+        <v>288</v>
+      </c>
       <c r="C412" s="13">
         <v>1.25</v>
       </c>
-      <c r="D412" s="39"/>
+      <c r="D412" s="39">
+        <v>1</v>
+      </c>
       <c r="E412" s="9"/>
       <c r="F412" s="20"/>
       <c r="G412" s="13">
@@ -11243,7 +11247,9 @@
       <c r="H412" s="39"/>
       <c r="I412" s="9"/>
       <c r="J412" s="11"/>
-      <c r="K412" s="20"/>
+      <c r="K412" s="49">
+        <v>44970</v>
+      </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
@@ -12677,17 +12683,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
